--- a/tabular/extension/primate/siv-reference-data.xlsx
+++ b/tabular/extension/primate/siv-reference-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE-Primates/tabular/extension/primate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5895CB8D-4342-5048-B74B-151F6EF69E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD607B5C-6E93-304F-B0FF-B502E27EED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="5440" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19360" yWindow="5300" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main refs" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="99">
   <si>
     <t>Accession</t>
   </si>
@@ -247,38 +247,92 @@
     <t>SIVdrl</t>
   </si>
   <si>
+    <t>SIVlhoest</t>
+  </si>
+  <si>
+    <t>SIVsun</t>
+  </si>
+  <si>
+    <t>SIVsyk</t>
+  </si>
+  <si>
+    <t>SIVgsn</t>
+  </si>
+  <si>
+    <t>SIVmon</t>
+  </si>
+  <si>
+    <t>SIVcol</t>
+  </si>
+  <si>
+    <t>genotype</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cercopithecus solatus</t>
+  </si>
+  <si>
+    <t>SIVlhoest524</t>
+  </si>
+  <si>
+    <t>Cercopithecus lhoesti</t>
+  </si>
+  <si>
+    <t>SIVcolCGU1</t>
+  </si>
+  <si>
+    <t>Colobus guereza</t>
+  </si>
+  <si>
+    <t>SIVgsn-99CM166</t>
+  </si>
+  <si>
+    <t>Cercopithecus nictitans</t>
+  </si>
+  <si>
+    <t>Cercopithecus mona subsp. denti</t>
+  </si>
+  <si>
+    <t>SIVdrl1FAO</t>
+  </si>
+  <si>
+    <t>Mandrillus leucophaeus</t>
+  </si>
+  <si>
+    <t>Cercocebus torquatus torquatus (red capped mangabey)</t>
+  </si>
+  <si>
+    <t>syk173/1.2</t>
+  </si>
+  <si>
+    <t>GB1</t>
+  </si>
+  <si>
+    <t>Mandrillus sphinx</t>
+  </si>
+  <si>
+    <t>MK686247</t>
+  </si>
+  <si>
+    <t>isolate F236</t>
+  </si>
+  <si>
     <t>SIVsm</t>
   </si>
   <si>
-    <t>SIVlhoest</t>
-  </si>
-  <si>
-    <t>SIVsun</t>
-  </si>
-  <si>
-    <t>SIVsyk</t>
-  </si>
-  <si>
-    <t>SIVgsn</t>
-  </si>
-  <si>
-    <t>SIVmon</t>
-  </si>
-  <si>
-    <t>SIVcol</t>
-  </si>
-  <si>
-    <t>genotype</t>
-  </si>
-  <si>
-    <t>clade</t>
+    <t>Cercocebus atys</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -319,12 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -349,7 +397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +414,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -404,14 +458,14 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -430,7 +484,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -753,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E7" sqref="A1:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,10 +830,10 @@
         <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>54</v>
@@ -804,202 +858,375 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="8">
+        <v>10438863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="8">
+        <v>10729165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="8">
+        <v>11134299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="8">
+        <v>12134035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="8">
+        <v>15956597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="8">
+        <v>12663793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="C8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2002</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="8">
+        <v>20797968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="8">
+        <v>8382307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="C10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="8">
+        <v>2797181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K11">
-    <sortCondition ref="B2:B11"/>
-    <sortCondition ref="C2:C11"/>
-    <sortCondition ref="E2:E11"/>
+    <sortCondition ref="A2:A11"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
